--- a/regions/12/infrastruqtura/infrastruqtura.xlsx
+++ b/regions/12/infrastruqtura/infrastruqtura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -37,21 +37,6 @@
     <t>ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების რაოდენობა</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ელექტროენერგიითა და ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების  წილი შიდა ქართლის რეგიონში
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
     <t>* 2011-2018 წლები მოიცავს  შიდა ქართლის, აჭარის, გურიის, მცხეთა-მთიანეთისა და  სამცხე-ჯავახეთის რეგიონებს.</t>
   </si>
   <si>
@@ -69,11 +54,26 @@
       <t>(%)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ელექტროენერგიითა და ბუნებრივი აირით უზრუნველყოფილი შინამეურნეობების წილი შიდა ქართლის რეგიონში
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -573,9 +573,9 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -588,8 +588,10 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2011</v>
@@ -624,8 +626,14 @@
       <c r="L2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -662,8 +670,14 @@
       <c r="L3" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="8">
+        <v>100</v>
+      </c>
+      <c r="N3" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -700,10 +714,16 @@
       <c r="L4" s="9">
         <v>90.77825389743316</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="M4" s="9">
+        <v>97.488450522766669</v>
+      </c>
+      <c r="N4" s="9">
+        <v>97.596184574673359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -716,8 +736,10 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>2011</v>
@@ -752,8 +774,14 @@
       <c r="L8" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -790,8 +818,14 @@
       <c r="L9" s="10">
         <v>56.024521888246682</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="10">
+        <v>61.451845455225858</v>
+      </c>
+      <c r="N9" s="10">
+        <v>61.55773662425316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -828,8 +862,14 @@
       <c r="L10" s="10">
         <v>22.67304794366224</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="10">
+        <v>17.145943279389471</v>
+      </c>
+      <c r="N10" s="10">
+        <v>15.855534460762902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -866,8 +906,14 @@
       <c r="L11" s="10">
         <v>16.854301831951176</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="10">
+        <v>19.106647010154497</v>
+      </c>
+      <c r="N11" s="10">
+        <v>22.003171411868696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -904,8 +950,14 @@
       <c r="L12" s="10">
         <v>4.2025593041132936</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="10">
+        <v>2.2955642552301727</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.58355750311524324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -942,10 +994,16 @@
       <c r="L13" s="11">
         <v>0.24556903202661123</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -958,8 +1016,10 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -973,9 +1033,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
